--- a/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>107606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90211</v>
+        <v>89419</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128634</v>
+        <v>127639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1596871971218056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1338725785853621</v>
+        <v>0.1326974739513851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1908923893851497</v>
+        <v>0.1894169904392083</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -762,19 +762,19 @@
         <v>97951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80648</v>
+        <v>81146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115411</v>
+        <v>116846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.146309451598522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1204640946665927</v>
+        <v>0.1212089115890833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1723901714937068</v>
+        <v>0.1745341117540706</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -783,19 +783,19 @@
         <v>205557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181566</v>
+        <v>181480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>233901</v>
+        <v>234462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1530201285237172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1351612135700357</v>
+        <v>0.1350974182838655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1741206551286859</v>
+        <v>0.1745379702517729</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11761</v>
+        <v>11886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28735</v>
+        <v>30150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02782109848025012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0174526767635726</v>
+        <v>0.01763932588816303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04264315987305302</v>
+        <v>0.04474214303682366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1855</v>
+        <v>1809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10360</v>
+        <v>10088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006930764948740131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002771485904376907</v>
+        <v>0.002702146376002475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01547407414297882</v>
+        <v>0.01506802978879142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>23387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15571</v>
+        <v>15652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35905</v>
+        <v>36190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01740998051952083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01159151423154342</v>
+        <v>0.01165153449935884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02672866202320076</v>
+        <v>0.02694059694459641</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>17570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9968</v>
+        <v>10170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27405</v>
+        <v>29230</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02607321611439333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01479262685186971</v>
+        <v>0.01509237672870724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04066877525219487</v>
+        <v>0.04337752324757099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -904,19 +904,19 @@
         <v>11755</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6452</v>
+        <v>6585</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19158</v>
+        <v>18886</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01755884434778986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009637595764290439</v>
+        <v>0.009836650870227134</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02861583124530023</v>
+        <v>0.02820946255695908</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -925,19 +925,19 @@
         <v>29325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19829</v>
+        <v>20199</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41799</v>
+        <v>41647</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02182990766314696</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01476109675557122</v>
+        <v>0.01503686144442952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03111612631237638</v>
+        <v>0.03100273458408816</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7512</v>
+        <v>7264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23706</v>
+        <v>22443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02066021797870216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01114840667113668</v>
+        <v>0.0107803842063836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03517995586109939</v>
+        <v>0.03330493828556756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -975,19 +975,19 @@
         <v>12953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7151</v>
+        <v>6845</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21295</v>
+        <v>22337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0193483401900781</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01068168919616897</v>
+        <v>0.0102250804522635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03180920708251306</v>
+        <v>0.03336465750130439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -996,19 +996,19 @@
         <v>26875</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17586</v>
+        <v>17738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39383</v>
+        <v>39142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02000641729204369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01309116604641144</v>
+        <v>0.01320464992537709</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02931741623366171</v>
+        <v>0.02913780789223911</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>516009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>492263</v>
+        <v>492020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>538255</v>
+        <v>538535</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7657582703048488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.730519482699229</v>
+        <v>0.7301584461146668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7987703637123588</v>
+        <v>0.7991859576392604</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>535</v>
@@ -1046,19 +1046,19 @@
         <v>542176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>523403</v>
+        <v>521050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561600</v>
+        <v>561921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8098525989148698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818114338959076</v>
+        <v>0.7782971364230897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8388661196137435</v>
+        <v>0.8393450727934034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1035</v>
@@ -1067,19 +1067,19 @@
         <v>1058186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1026842</v>
+        <v>1024855</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1086851</v>
+        <v>1084975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7877335660015713</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7644002984578707</v>
+        <v>0.7629210818475101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8090720599371034</v>
+        <v>0.807675746251813</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>176912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154754</v>
+        <v>152800</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203448</v>
+        <v>204057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1730311444330505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1513590042458</v>
+        <v>0.1494481152379797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1989849579688131</v>
+        <v>0.1995803145850716</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1192,19 +1192,19 @@
         <v>150976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127696</v>
+        <v>128566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173544</v>
+        <v>177276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1449002686585751</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.122556608689331</v>
+        <v>0.1233915048059877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1665598983575827</v>
+        <v>0.1701414635955633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>313</v>
@@ -1213,19 +1213,19 @@
         <v>327889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291322</v>
+        <v>298137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>359650</v>
+        <v>364143</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1588328374925304</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.141119652520517</v>
+        <v>0.14442079633187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1742181952387581</v>
+        <v>0.1763950014406776</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>24593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15783</v>
+        <v>16678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36223</v>
+        <v>37546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02405354183965576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01543659519403526</v>
+        <v>0.01631187762552329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03542785027215987</v>
+        <v>0.03672211966384744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1263,19 +1263,19 @@
         <v>26820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17983</v>
+        <v>17445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38369</v>
+        <v>37650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02574081499875823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01725936883420713</v>
+        <v>0.01674320885345854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03682511558327363</v>
+        <v>0.03613492539946356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1284,19 +1284,19 @@
         <v>51413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38087</v>
+        <v>39458</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66521</v>
+        <v>68593</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02490514782581474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0184497761308525</v>
+        <v>0.01911408569682484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0322233963164684</v>
+        <v>0.03322707767352141</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>23729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14678</v>
+        <v>15461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34751</v>
+        <v>38122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02320824667043652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0143562576429365</v>
+        <v>0.01512196452489648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0339888220113914</v>
+        <v>0.03728532265685792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1334,19 +1334,19 @@
         <v>17278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9378</v>
+        <v>10159</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27555</v>
+        <v>27341</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01658246580645548</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009000261758608989</v>
+        <v>0.009749914149555373</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02644583940048706</v>
+        <v>0.02624039096293515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -1355,19 +1355,19 @@
         <v>41007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29593</v>
+        <v>29295</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56724</v>
+        <v>56202</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01986406104388071</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01433503132817273</v>
+        <v>0.01419057904579237</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02747774047121536</v>
+        <v>0.02722465331492445</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>30806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20812</v>
+        <v>20867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44739</v>
+        <v>45840</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03013062094785441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02035546225091817</v>
+        <v>0.02040875938945693</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04375714211892421</v>
+        <v>0.04483454361140798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1405,19 +1405,19 @@
         <v>20397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12727</v>
+        <v>12621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32622</v>
+        <v>32132</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01957610918767023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01221445616472979</v>
+        <v>0.01211355314020931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03130869247715262</v>
+        <v>0.0308390209098615</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1426,19 +1426,19 @@
         <v>51203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37438</v>
+        <v>37762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67276</v>
+        <v>68490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02480351350975621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01813556957326247</v>
+        <v>0.01829238531228026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03258924116039833</v>
+        <v>0.03317752183076138</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>766390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>736452</v>
+        <v>735970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>793247</v>
+        <v>794325</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7495764461090028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7202952384420845</v>
+        <v>0.7198238450031034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7758435726352868</v>
+        <v>0.7768981528978453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>769</v>
@@ -1476,19 +1476,19 @@
         <v>826461</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>799807</v>
+        <v>800758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>852691</v>
+        <v>854962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.793200341348541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7676193738576482</v>
+        <v>0.7685316540103824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8183748057521856</v>
+        <v>0.8205541429658969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1481</v>
@@ -1497,19 +1497,19 @@
         <v>1592851</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1556153</v>
+        <v>1550396</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1634783</v>
+        <v>1628496</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.771594440128018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7538175182968232</v>
+        <v>0.7510286006604112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7919066107657986</v>
+        <v>0.7888612955969623</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>83000</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66463</v>
+        <v>66893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101925</v>
+        <v>100980</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.109663056661063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08781299046781031</v>
+        <v>0.088382093560482</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1346671780228731</v>
+        <v>0.1334189102297568</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1622,19 +1622,19 @@
         <v>89663</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73105</v>
+        <v>73345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109801</v>
+        <v>109018</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1146417537603733</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0934718775567958</v>
+        <v>0.09377852795322772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.140390775390179</v>
+        <v>0.1393897817383814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -1643,19 +1643,19 @@
         <v>172663</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149357</v>
+        <v>146610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201118</v>
+        <v>199563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1121932429116225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09704935252075317</v>
+        <v>0.09526461675215131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1306830194129229</v>
+        <v>0.1296721939363073</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>4173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10497</v>
+        <v>11584</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00551336404297141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001370633536429264</v>
+        <v>0.001394991070406453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01386866211014716</v>
+        <v>0.01530475080616138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1693,19 +1693,19 @@
         <v>4893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1856</v>
+        <v>1891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10793</v>
+        <v>10790</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006256649263779332</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002372620105082413</v>
+        <v>0.002418333501194283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01380039657624854</v>
+        <v>0.01379652737385594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1714,19 +1714,19 @@
         <v>9066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4178</v>
+        <v>4045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17138</v>
+        <v>16035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005891103441135001</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002714804714322079</v>
+        <v>0.002628389618944203</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01113617304467661</v>
+        <v>0.0104192789271723</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>9842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4562</v>
+        <v>4539</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18891</v>
+        <v>18437</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01300405628136895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006027782397764056</v>
+        <v>0.00599716656944884</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02495909189393871</v>
+        <v>0.02435912811580714</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1767,16 +1767,16 @@
         <v>1039</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8531</v>
+        <v>9021</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004074618657962163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001328597189314844</v>
+        <v>0.001328313675713624</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01090825105874711</v>
+        <v>0.01153432762043226</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1785,19 +1785,19 @@
         <v>13029</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6924</v>
+        <v>6865</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21803</v>
+        <v>22275</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008466093868852951</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004498945080980097</v>
+        <v>0.004460917578193126</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01416736910029673</v>
+        <v>0.0144739649027117</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>11291</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5450</v>
+        <v>6105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18807</v>
+        <v>19487</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01491876377164691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007200651061428201</v>
+        <v>0.008065976525036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0248481213875986</v>
+        <v>0.02574714455266131</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1835,19 +1835,19 @@
         <v>10079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5345</v>
+        <v>4785</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17884</v>
+        <v>18614</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01288730711490538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006833454359876618</v>
+        <v>0.006118341820392725</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02286605024930662</v>
+        <v>0.02379945465948012</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1856,19 +1856,19 @@
         <v>21371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13727</v>
+        <v>13128</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32429</v>
+        <v>31298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01388637244536859</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008919740914405595</v>
+        <v>0.008530494105743738</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02107162840493101</v>
+        <v>0.02033714310744294</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>648558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>628858</v>
+        <v>627837</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>668702</v>
+        <v>667281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8569007592429497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8308724356421374</v>
+        <v>0.8295230647516287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8835150047738268</v>
+        <v>0.8816384825140701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>628</v>
@@ -1906,19 +1906,19 @@
         <v>674290</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>653557</v>
+        <v>653676</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>691423</v>
+        <v>692646</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8621396712029799</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8356308656165982</v>
+        <v>0.8357834422450164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8840459541986586</v>
+        <v>0.8856093705126685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1221</v>
@@ -1927,19 +1927,19 @@
         <v>1322849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1292726</v>
+        <v>1293726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1347306</v>
+        <v>1348077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.859563187333021</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8399899051709158</v>
+        <v>0.8406396343325195</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8754551392576718</v>
+        <v>0.8759561235404566</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>107736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88759</v>
+        <v>88489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129113</v>
+        <v>129117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1149103135769789</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09467001680183086</v>
+        <v>0.09438129622533141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1377106018830338</v>
+        <v>0.1377150942375461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -2052,19 +2052,19 @@
         <v>116875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96786</v>
+        <v>96453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>139622</v>
+        <v>139185</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1124131672060696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09309158201969611</v>
+        <v>0.09277118956543119</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1342924454506511</v>
+        <v>0.1338714748900493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>214</v>
@@ -2073,19 +2073,19 @@
         <v>224611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>197259</v>
+        <v>196837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252477</v>
+        <v>257040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1135972536563869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09976396944266686</v>
+        <v>0.09955034572775701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1276906164671349</v>
+        <v>0.1299983552699125</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>17255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10518</v>
+        <v>10829</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26804</v>
+        <v>26591</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01840422448047684</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01121833118639678</v>
+        <v>0.01155016963962554</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02858844964088578</v>
+        <v>0.02836164334412016</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2123,19 +2123,19 @@
         <v>11907</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5817</v>
+        <v>5978</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20778</v>
+        <v>20978</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01145200217991992</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005594685090819805</v>
+        <v>0.00575020539127397</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01998471408210251</v>
+        <v>0.02017758970125231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -2144,19 +2144,19 @@
         <v>29162</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19409</v>
+        <v>19961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42167</v>
+        <v>41793</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01474857795200227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009816139917084452</v>
+        <v>0.01009513659084432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02132590752510846</v>
+        <v>0.02113699478946056</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>19756</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12263</v>
+        <v>12547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30069</v>
+        <v>30030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02107208410478079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01307928232506048</v>
+        <v>0.01338240598296705</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03207083203194464</v>
+        <v>0.03203001417748862</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2194,19 +2194,19 @@
         <v>21552</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13660</v>
+        <v>13680</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32392</v>
+        <v>31994</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02072935112398343</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0131382199170533</v>
+        <v>0.01315758193422117</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03115503666774649</v>
+        <v>0.03077257658397422</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -2215,19 +2215,19 @@
         <v>41309</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30230</v>
+        <v>30543</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>55298</v>
+        <v>54941</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02089186681924531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01528890795917271</v>
+        <v>0.01544694465143867</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02796717442551613</v>
+        <v>0.0277863200719571</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>26649</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18412</v>
+        <v>17515</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38981</v>
+        <v>38060</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02842346075370509</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01963827579877887</v>
+        <v>0.01868091729660591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04157659998584982</v>
+        <v>0.04059445402816137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2265,19 +2265,19 @@
         <v>27747</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18168</v>
+        <v>18417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39041</v>
+        <v>39841</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02668802419367227</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01747472124647239</v>
+        <v>0.01771387842056009</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03755032847439078</v>
+        <v>0.03831972772695656</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -2286,19 +2286,19 @@
         <v>54396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41684</v>
+        <v>40955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72320</v>
+        <v>69868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02751092626303387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0210815868409151</v>
+        <v>0.02071318695751971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03657570568047264</v>
+        <v>0.03533593435901129</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>766170</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743068</v>
+        <v>741315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>792017</v>
+        <v>789109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8171899170840583</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7925492996120785</v>
+        <v>0.7906790969331179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8447577722755185</v>
+        <v>0.8416557845441768</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>789</v>
@@ -2336,19 +2336,19 @@
         <v>861608</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>833856</v>
+        <v>834428</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>886287</v>
+        <v>885640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8287174552963549</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8020247285325055</v>
+        <v>0.8025744388238184</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8524543780875924</v>
+        <v>0.8518320992038231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1550</v>
@@ -2357,19 +2357,19 @@
         <v>1627779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1596743</v>
+        <v>1591054</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1660240</v>
+        <v>1660997</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8232513753093317</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8075547811932757</v>
+        <v>0.8046778196067564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8396685946749943</v>
+        <v>0.8400516441443687</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>475255</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>436578</v>
+        <v>430680</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>518145</v>
+        <v>517694</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1401634233139076</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1287569414017316</v>
+        <v>0.1270173447733508</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1528129039304072</v>
+        <v>0.1526798875362065</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>438</v>
@@ -2482,19 +2482,19 @@
         <v>455464</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>415591</v>
+        <v>415783</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>495076</v>
+        <v>495649</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1289095271850066</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1176241906321838</v>
+        <v>0.1176784391999797</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1401206929824123</v>
+        <v>0.1402829129618302</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>893</v>
@@ -2503,19 +2503,19 @@
         <v>930719</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>873192</v>
+        <v>875367</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>987087</v>
+        <v>986552</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1344206754782551</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1261122588481867</v>
+        <v>0.1264264565689951</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1425617360175419</v>
+        <v>0.1424844163824556</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>64769</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49549</v>
+        <v>49382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82070</v>
+        <v>81338</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01910171437433479</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01461306864211259</v>
+        <v>0.01456393147018574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02420419058133317</v>
+        <v>0.02398852076223888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -2553,19 +2553,19 @@
         <v>48260</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36127</v>
+        <v>34483</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62727</v>
+        <v>62247</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01365899464963064</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0102248783443634</v>
+        <v>0.009759556824849826</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01775360232151287</v>
+        <v>0.01761758294925887</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>111</v>
@@ -2574,19 +2574,19 @@
         <v>113029</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>91955</v>
+        <v>92642</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>136988</v>
+        <v>133624</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01632435028983438</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01328075855974546</v>
+        <v>0.01338004998893881</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01978470371835078</v>
+        <v>0.01929894161067736</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>70897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54880</v>
+        <v>55884</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89804</v>
+        <v>89893</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02090919871915262</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01618538314450396</v>
+        <v>0.01648142140622845</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02648536582652931</v>
+        <v>0.02651145254008364</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -2624,19 +2624,19 @@
         <v>53772</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40004</v>
+        <v>40366</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70143</v>
+        <v>70390</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01521900003358924</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01132236425016896</v>
+        <v>0.01142469432970365</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01985250900527226</v>
+        <v>0.01992248286467344</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>119</v>
@@ -2645,19 +2645,19 @@
         <v>124669</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>104503</v>
+        <v>103319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>149294</v>
+        <v>151350</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01800554865772782</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01509307293770774</v>
+        <v>0.01492202836751197</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02156210767568518</v>
+        <v>0.02185902023578619</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>82669</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67283</v>
+        <v>64086</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>104025</v>
+        <v>101619</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02438093043273475</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01984331138510118</v>
+        <v>0.01890029734415693</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03067932461385293</v>
+        <v>0.02996962074355628</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2695,19 +2695,19 @@
         <v>71177</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>54805</v>
+        <v>55629</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>88323</v>
+        <v>89397</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0201450819480525</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01551141996902036</v>
+        <v>0.01574464906471879</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02499792580324435</v>
+        <v>0.02530199479172121</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>145</v>
@@ -2716,19 +2716,19 @@
         <v>153846</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>129635</v>
+        <v>131054</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>178368</v>
+        <v>180583</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02221942037089128</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01872280054769613</v>
+        <v>0.01892777192426605</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02576108111907192</v>
+        <v>0.02608102320916549</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>2697129</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2649156</v>
+        <v>2643903</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2742671</v>
+        <v>2743364</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7954447331598703</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7812965153872587</v>
+        <v>0.7797473295469479</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.808876316842323</v>
+        <v>0.8090806995556185</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2721</v>
@@ -2766,19 +2766,19 @@
         <v>2904536</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2857531</v>
+        <v>2856820</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2952907</v>
+        <v>2950393</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.822067396183721</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.808763586552512</v>
+        <v>0.8085625135052059</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8357577598695347</v>
+        <v>0.8350463813130279</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5287</v>
@@ -2787,19 +2787,19 @@
         <v>5601664</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5532376</v>
+        <v>5536100</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5667804</v>
+        <v>5659164</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8090300052032914</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7990229600956436</v>
+        <v>0.7995607903118324</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.818582363119055</v>
+        <v>0.8173345861261162</v>
       </c>
     </row>
     <row r="33">
